--- a/similarities/split_global/harmonic_similarity_timestamps_54.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,334 +484,336 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:01.260000', '0:00:05.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:05.260000', '0:01:11.040000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=65.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:00:22.300000', '0:00:48.740000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E']]</t>
+          <t>['B:min', 'E:min', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:05.956303')]</t>
+          <t>('0:00:45.338707', '0:00:52.304693')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:32.257000', '0:00:34.149000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=45.338707</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=32.257</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['F:min/G#', 'D#:maj/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F', 'C']]</t>
+          <t>['G:min', 'F', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:01:01.460000')]</t>
+          <t>('0:01:20.260000', '0:01:25.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:52.146870')]</t>
+          <t>('0:00:03.560725', '0:00:10.073922')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=80.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:03:00.060000', '0:03:02.260000'), ('0:00:22.660000', '0:00:29.320000')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:44.620000', '0:00:47.460000'), ('0:01:41.180000', '0:01:53.780000')]</t>
+          <t>('0:00:56.920000', '0:01:03.560000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=180.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=101.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C', 'A:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:7', 'A', 'F#:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+          <t>('0:01:48.586000', '0:01:54.554000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+          <t>('0:00:16.504148', '0:00:22.622607')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=108.586</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=16.504148</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.360000', '0:00:21.740000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
+          <t>('0:00:47.300000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -821,397 +823,383 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'E:7']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj'], ['C:maj/E', 'G:maj/D', 'G:7/F']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:32.669000'), ('0:01:32.241000', '0:01:38.929000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000'), ('0:01:00.100000', '0:01:04.320000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:23.420000')]</t>
+          <t>('0:00:35.620000', '0:00:42.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:01:36.241000', '0:01:41.882000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=35.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>isophonics_60</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'G', 'C']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'Bb/2', 'Eb']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.309106', '0:00:48.640189')]</t>
+          <t>('0:00:00.980790', '0:00:05.421882')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.144000', '0:00:18.978000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-205#t=42.309106']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=0.98079</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=13.144']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:22.850000', '0:00:26.110000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:03.200000', '0:00:06.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=3.2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
